--- a/data/trans_orig/IP22D1_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ABAB0E-2488-431E-91EB-74B0BB883139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD4BA21-6924-420D-9CA8-97561828775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4630336A-E2EC-47F7-A026-57A811E1BCA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83BE15E2-02E8-42B3-9902-383AC7B15ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1492765-7DE4-400D-A3D2-ACB77A8C287A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877C058-B0C3-41CA-9C3D-F130C823FF66}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD4BA21-6924-420D-9CA8-97561828775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{312300F4-B380-4A12-90D0-0E567BC4A77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83BE15E2-02E8-42B3-9902-383AC7B15ADB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{481717C8-08B6-4576-88FB-067D0B195F48}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,21 +68,21 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
@@ -98,12 +98,12 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
@@ -116,10 +116,10 @@
     <t>95,66%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877C058-B0C3-41CA-9C3D-F130C823FF66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DA5C69-505A-4005-B81D-E990C55AFB0C}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -655,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -670,10 +670,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -706,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -721,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -759,31 +759,31 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>17</v>
       </c>
-      <c r="D6" s="7">
-        <v>11775</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>12537</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7589</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -792,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -810,25 +810,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
-        <v>11775</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
       <c r="I7" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -843,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -863,10 +863,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>15412</v>
+        <v>9507</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -878,10 +878,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -896,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -914,25 +914,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
       <c r="I9" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -947,7 +947,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -967,31 +967,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>23598</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>16266</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>17756</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20404</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1018,25 +1018,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7">
+        <v>23598</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
-        <v>16266</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
       <c r="I11" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1051,7 +1051,7 @@
         <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1071,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>49417</v>
+        <v>48166</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1086,10 +1086,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1104,7 +1104,7 @@
         <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1122,25 +1122,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>63</v>
-      </c>
       <c r="I13" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1155,7 +1155,7 @@
         <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
